--- a/src/baseline_model/baseline_lr_model_results.xlsx
+++ b/src/baseline_model/baseline_lr_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA57D0-1BE5-4FD3-93A3-11A93C314AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EBB232-3AA7-439A-AA3E-1F377617445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17355" yWindow="2370" windowWidth="16920" windowHeight="10755" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="-20160" yWindow="4005" windowWidth="16920" windowHeight="10755" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Mug</t>
   </si>
@@ -177,6 +177,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,9 +187,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +506,7 @@
   <dimension ref="C2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,21 +526,21 @@
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -578,31 +578,31 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>92.5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>50.75</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>92.5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>86.5</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>84</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>77.75</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>84.5</v>
       </c>
     </row>
@@ -610,63 +610,63 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>94.2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>50.5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>94.1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>92.1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="7">
-        <v>91.8</v>
-      </c>
-      <c r="J8" s="7">
-        <v>95.6</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="7">
-        <v>93.3</v>
+      <c r="D8" s="4">
+        <v>99</v>
+      </c>
+      <c r="E8" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>99</v>
+      </c>
+      <c r="G8" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>92</v>
+      </c>
+      <c r="J8" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>98</v>
+      </c>
+      <c r="L8" s="4">
+        <v>98.5</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>80.5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>77.75</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>85.5</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>85</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>85</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>86.75</v>
       </c>
     </row>

--- a/src/baseline_model/baseline_lr_model_results.xlsx
+++ b/src/baseline_model/baseline_lr_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EBB232-3AA7-439A-AA3E-1F377617445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907892FA-C250-4F4A-B902-C1E2FD8E5B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20160" yWindow="4005" windowWidth="16920" windowHeight="10755" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="-14355" yWindow="2055" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
-  <si>
-    <t>Mug</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Tactile</t>
   </si>
@@ -59,22 +56,16 @@
     <t>CNN</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Bottle</t>
   </si>
   <si>
     <t>Baseline Approach - Logistic Regression Model</t>
   </si>
   <si>
-    <t>epochs=1000, learning rate=1e-5</t>
-  </si>
-  <si>
-    <t>Cube (block)</t>
-  </si>
-  <si>
     <t>Object/Data Type</t>
+  </si>
+  <si>
+    <t>Rectangular block</t>
   </si>
 </sst>
 </file>
@@ -503,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73A440-1403-46F3-8C0D-8F0E6F259824}">
-  <dimension ref="C2:L9"/>
+  <dimension ref="C2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,165 +507,128 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>3</v>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>88.75</v>
+      </c>
+      <c r="F6" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>93.75</v>
+      </c>
+      <c r="H6" s="4">
+        <v>93.75</v>
+      </c>
+      <c r="I6" s="4">
+        <v>93.75</v>
+      </c>
+      <c r="J6" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>88.75</v>
+      </c>
+      <c r="L6" s="4">
+        <v>97.5</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>92.5</v>
+        <v>81.25</v>
       </c>
       <c r="E7" s="4">
-        <v>50.75</v>
+        <v>80.62</v>
       </c>
       <c r="F7" s="4">
-        <v>92.5</v>
+        <v>81.25</v>
       </c>
       <c r="G7" s="4">
-        <v>86.5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="H7" s="4">
+        <v>85</v>
       </c>
       <c r="I7" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7" s="4">
-        <v>77.75</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="K7" s="4">
+        <v>80.62</v>
       </c>
       <c r="L7" s="4">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>99</v>
-      </c>
-      <c r="E8" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>99</v>
-      </c>
-      <c r="G8" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>92.5</v>
-      </c>
-      <c r="I8" s="4">
-        <v>92</v>
-      </c>
-      <c r="J8" s="4">
-        <v>99.5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>98</v>
-      </c>
-      <c r="L8" s="4">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>80.5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4">
-        <v>77.75</v>
-      </c>
-      <c r="G9" s="4">
-        <v>85.5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4">
-        <v>85</v>
-      </c>
-      <c r="J9" s="4">
-        <v>85</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="4">
-        <v>86.75</v>
+        <v>88.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/baseline_model/baseline_lr_model_results.xlsx
+++ b/src/baseline_model/baseline_lr_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907892FA-C250-4F4A-B902-C1E2FD8E5B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681797A-FF00-4A96-A0E2-8B052DF47D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14355" yWindow="2055" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="-14385" yWindow="3060" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Tactile</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>PCA</t>
-  </si>
-  <si>
     <t>CNN</t>
   </si>
   <si>
@@ -66,6 +63,18 @@
   </si>
   <si>
     <t>Rectangular block</t>
+  </si>
+  <si>
+    <t>Mug</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Epochs=400, samples per class=400</t>
+  </si>
+  <si>
+    <t>PCA (k=3)</t>
   </si>
 </sst>
 </file>
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73A440-1403-46F3-8C0D-8F0E6F259824}">
-  <dimension ref="C2:L7"/>
+  <dimension ref="C2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,128 +516,165 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>98.12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>88.75</v>
-      </c>
-      <c r="F6" s="4">
-        <v>98.12</v>
-      </c>
-      <c r="G6" s="4">
-        <v>93.75</v>
-      </c>
-      <c r="H6" s="4">
-        <v>93.75</v>
-      </c>
-      <c r="I6" s="4">
-        <v>93.75</v>
-      </c>
-      <c r="J6" s="4">
-        <v>97.5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>88.75</v>
-      </c>
-      <c r="L6" s="4">
-        <v>97.5</v>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>81.25</v>
+        <v>88.75</v>
       </c>
       <c r="E7" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>63.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>89.38</v>
+      </c>
+      <c r="I7" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="4">
+        <v>98.75</v>
+      </c>
+      <c r="L7" s="4">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <v>80.62</v>
       </c>
-      <c r="F7" s="4">
-        <v>81.25</v>
-      </c>
-      <c r="G7" s="4">
-        <v>85</v>
-      </c>
-      <c r="H7" s="4">
-        <v>85</v>
-      </c>
-      <c r="I7" s="4">
-        <v>85</v>
-      </c>
-      <c r="J7" s="4">
-        <v>90</v>
-      </c>
-      <c r="K7" s="4">
-        <v>80.62</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="E8" s="4">
+        <v>91.25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>91.25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.62</v>
+      </c>
+      <c r="H8" s="4">
+        <v>71.25</v>
+      </c>
+      <c r="I8" s="4">
+        <v>89.38</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
         <v>88.75</v>
+      </c>
+      <c r="L8" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>75.62</v>
+      </c>
+      <c r="E9" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>98.12</v>
+      </c>
+      <c r="G9" s="4">
+        <v>61.88</v>
+      </c>
+      <c r="H9" s="4">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4">
+        <v>95.62</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <v>96.25</v>
+      </c>
+      <c r="L9" s="4">
+        <v>96.88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/baseline_model/baseline_lr_model_results.xlsx
+++ b/src/baseline_model/baseline_lr_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681797A-FF00-4A96-A0E2-8B052DF47D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCB3B4-6586-4C95-B164-1B6AFB1535F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14385" yWindow="3060" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="-18930" yWindow="3420" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="C2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,31 +579,31 @@
         <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>88.75</v>
+        <v>72.5</v>
       </c>
       <c r="E7" s="4">
-        <v>98.12</v>
+        <v>92.5</v>
       </c>
       <c r="F7" s="4">
-        <v>98.12</v>
+        <v>92.5</v>
       </c>
       <c r="G7" s="4">
-        <v>63.75</v>
+        <v>75</v>
       </c>
       <c r="H7" s="4">
-        <v>89.38</v>
+        <v>67.5</v>
       </c>
       <c r="I7" s="4">
-        <v>98.12</v>
+        <v>82.5</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>98.75</v>
+        <v>95</v>
       </c>
       <c r="L7" s="4">
-        <v>98.75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">

--- a/src/baseline_model/baseline_lr_model_results.xlsx
+++ b/src/baseline_model/baseline_lr_model_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCB3B4-6586-4C95-B164-1B6AFB1535F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A9D58-B898-4E01-8FE9-6C44EDFE5800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18930" yWindow="3420" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="-15585" yWindow="2970" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="C2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,31 +579,31 @@
         <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="E7" s="4">
-        <v>92.5</v>
+        <v>93.75</v>
       </c>
       <c r="F7" s="4">
-        <v>92.5</v>
+        <v>93.75</v>
       </c>
       <c r="G7" s="4">
-        <v>75</v>
+        <v>78.75</v>
       </c>
       <c r="H7" s="4">
-        <v>67.5</v>
+        <v>82.5</v>
       </c>
       <c r="I7" s="4">
-        <v>82.5</v>
+        <v>88.75</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>95</v>
+        <v>91.25</v>
       </c>
       <c r="L7" s="4">
-        <v>95</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
